--- a/responses.xlsx
+++ b/responses.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[{'Image': 'Dumbbell Alternating Pendlay Row_concatenated.png', 'Model': 'ChatGPT-4', 'Response': "The images depict a sequence of a dumbbell workout involving a bent-over row exercise. Here's a detailed breakdown of the body movements in each frame:\n\n1. **First Frame**: The individual is in a preparatory position, bent at the hips with the torso angled forward. The knees are slightly flexed, allowing for a stable base. One hand reaches down towards a dumbbell placed on the ground, while the other hand is also positioned near another dumbbell. The head is slightly lowered, maintaining a neutral spine, and the back is flat. This position emphasizes readiness to lift the weights.\n\n2. **Second Frame**: The movement progresses as the person lifts one dumbbell off the ground. The arm is bent at the elbow, and the dumbbell is being raised towards the body, engaging the upper back and biceps. The torso remains bent forward, with the other arm still reaching towards the second dumbbell. The legs continue to support the body through a stable stance. This frame shows the action of pulling the weight up, emphasizing muscle engagement.\n\n3. **Third Frame**: In the final frame, the dumbbell that was lifted is raised further towards the body, likely nearing the end of the rowing motion. The elbow is higher than the shoulder level, showcasing a strong contraction in the upper back muscles. The torso may still maintain a forward angle, and the other arm is positioned to lift the second dumbbell or remains in a stabilizing role. The overall posture keeps the spine neutral, highlighting the importance of form during the exercise.\n\nThis sequence illustrates a representative movement of the bent-over row, focusing on strengthening the upper body, particularly the back and arms."}, {'Image': 'Side Plank Reach Through Bodyweight_concatenated.png', 'Model': 'ChatGPT-4', 'Response': "The three frames depict a workout activity that resembles a side plank exercise. Here's a detailed description of the body movements occurring in each frame:\n\n1. **First Frame**: The individual is positioned on their side on a red mat. Their body is aligned in a straight line from head to feet, with the legs stacked on top of each other. The supporting arm is bent at the elbow, with the forearm resting on the mat, providing stability. The other arm is extended along the body, and the head is lifted slightly, engaging the core.\n\n2. **Second Frame**: The focus shifts to a transition phase where the individual is preparing to rise into a more dynamic position. The supporting arm is lifting the body upward, and the torso is elevated. The legs remain aligned, and the head is looking forward. This transition emphasizes engagement of the core and shoulder muscles.\n\n3. **Third Frame**: The individual has completed the movement and is now fully elevated into a side plank position. The body forms a straight line from the feet through the head. The supporting arm is fully extended, and the non-supporting arm may be lifted for added balance and focus. The core muscles are engaged to maintain stability, and the individual appears strong and balanced.\n\nOverall, this exercise is excellent for developing core strength, stability, and shoulder endurance."}, {'Image': 'Dumbbell Decline Squeeze Press_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'The three frames depict a workout activity, specifically a dumbbell bench press. Here’s a detailed description of the body movements in each frame:\n\n1. **First Frame**: The individual is in a starting position, lying on a bench with their back flat and slightly arched. The feet are planted firmly on the floor for stability. They hold a dumbbell in each hand, with elbows bent at approximately a 90-degree angle, lowering the weights toward the chest. This position prepares the body for the upward press.\n\n2. **Second Frame**: In this frame, the individual is in the middle of the pressing movement. The dumbbells are rising, with the arms extending upward from the elbows, engaging the chest, shoulders, and triceps. The wrists are straight and aligned with the elbows, showcasing proper lifting technique. The head remains stable, and the gaze is directed upward, indicating focus on the weights being lifted.\n\n3. **Third Frame**: The individual completes the upward movement, fully extending the arms above the chest while still maintaining control of the dumbbells. The shoulders are engaged, and the core is tight to stabilize the body throughout the lift. This position demonstrates the peak of the press, showcasing the muscles in action and the full extension of the arms.\n\nOverall, the sequence illustrates the dynamic range of motion involved in a dumbbell bench press, highlighting the importance of form and stability throughout the exercise.'}]</t>
+          <t>[{'Image': 'Dumbbell Alternating Pendlay Row_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'The movement begins with the individual positioned low, arms reaching forward to grasp the weights on the ground, ensuring a solid base with feet shoulder-width apart. As they engage their core, they smoothly transition into a standing position, lifting the weights while keeping the back straight and the elbows close to the body, driving through the legs to facilitate the upward movement. The weights rise towards the torso, culminating in a controlled hold at waist height, followed by a deliberate lowering back to the starting position, maintaining balance and poise throughout the fluid sequence. This seamless motion emphasizes stability, strength, and proper form, culminating in a coherent, dynamic flow of effort and control.'}, {'Image': 'Side Plank Reach Through Bodyweight_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'Lying on the floor with the body extended and balanced on one side, the person begins by resting on their forearm, positioning the opposite arm along their side, and elevating their hips to create a straight line from head to feet. From this stable side plank position, they smoothly transition by lowering the hips towards the ground, engaging the core and twisting the torso as the extended arm reaches forward, preparing for the next movement. As they rise, the body fluidly shifts into a front-facing position, rotating the hips and realigning the arms for a brief pause in a plank pose, where the moment of stillness allows for a deep breath. Finally, they return to the side plank, effortlessly raising the hips again, completing the sequence in a continuous flow that emphasizes strength and control throughout the motions.'}, {'Image': 'Dumbbell Decline Squeeze Press_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'Lying supine on a flat bench with the feet planted firm on the ground, the individual grips a dumbbell in each hand, extending the arms vertically above the chest. As the arms bend at the elbows, the dumbbells lower towards the forehead, keeping the forearms perpendicular to the floor and maintaining control throughout the descent. The upper arms remain stationary, anchored to the bench as the weights are brought close to the chest, then smoothly reverse the movement, straightening the arms back up to the starting position, engaging the pectoral muscles and stabilizing the core, completing this sequence with fluidity and precision.'}]</t>
         </is>
       </c>
     </row>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +436,786 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Response</t>
+          <t>Chat_Response</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Llama_Response</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ChatGPT-4</t>
+          <t>Side Lunges</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[{'Image': 'Dumbbell Alternating Pendlay Row_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'The movement begins with the individual positioned low, arms reaching forward to grasp the weights on the ground, ensuring a solid base with feet shoulder-width apart. As they engage their core, they smoothly transition into a standing position, lifting the weights while keeping the back straight and the elbows close to the body, driving through the legs to facilitate the upward movement. The weights rise towards the torso, culminating in a controlled hold at waist height, followed by a deliberate lowering back to the starting position, maintaining balance and poise throughout the fluid sequence. This seamless motion emphasizes stability, strength, and proper form, culminating in a coherent, dynamic flow of effort and control.'}, {'Image': 'Side Plank Reach Through Bodyweight_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'Lying on the floor with the body extended and balanced on one side, the person begins by resting on their forearm, positioning the opposite arm along their side, and elevating their hips to create a straight line from head to feet. From this stable side plank position, they smoothly transition by lowering the hips towards the ground, engaging the core and twisting the torso as the extended arm reaches forward, preparing for the next movement. As they rise, the body fluidly shifts into a front-facing position, rotating the hips and realigning the arms for a brief pause in a plank pose, where the moment of stillness allows for a deep breath. Finally, they return to the side plank, effortlessly raising the hips again, completing the sequence in a continuous flow that emphasizes strength and control throughout the motions.'}, {'Image': 'Dumbbell Decline Squeeze Press_concatenated.png', 'Model': 'ChatGPT-4', 'Response': 'Lying supine on a flat bench with the feet planted firm on the ground, the individual grips a dumbbell in each hand, extending the arms vertically above the chest. As the arms bend at the elbows, the dumbbells lower towards the forehead, keeping the forearms perpendicular to the floor and maintaining control throughout the descent. The upper arms remain stationary, anchored to the bench as the weights are brought close to the chest, then smoothly reverse the movement, straightening the arms back up to the starting position, engaging the pectoral muscles and stabilizing the core, completing this sequence with fluidity and precision.'}]</t>
-        </is>
-      </c>
+          <t>Begin in a low, wide stance with feet spread apart and knees bent, hands held in front of the chest in a clasped position, then drive the body upward into a standing position by extending the legs fully while keeping the hands at chest level and the core engaged. After reaching the top, smoothly descend back into the wide squat position by lowering the hips, maintaining balance and control, and repeating the sequence to create a graceful rhythm of rising and lowering.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LLaMA 3.1</t>
+          <t>Single Arm Arnold Press</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>testrun.xlsx</t>
-        </is>
-      </c>
+          <t>The person stands upright with feet shoulder-width apart, holding a kettlebell close to the chest, elbows bent and positioned in front of the torso. With a controlled motion, they curl the kettlebell upwards by flexing the arms, allowing the elbows to point outward slightly as the kettlebell moves toward the face. Once the kettlebell reaches a full upward motion near the chin, the movement reverses, gradually lowering the weight back down while maintaining stability in the upper arms and ensuring smooth control of the descent until returning to the initial position.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kettlebell Row</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The person stands with feet shoulder-width apart, holding the kettlebell with both hands between the legs, while the torso leans slightly forward, engaging a hinge at the hips. With a controlled movement, the body maintains this forward, hinged posture as the hands bring the kettlebell upward toward the lower abdomen, driving the elbows back and engaging the back muscles, before reversing the motion smoothly, lowering the kettlebell back down in a steady, fluid arc without releasing the hip hinge.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kettlebell Goblet Squat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>With feet planted shoulder-width apart, the individual grips a kettlebell close to the chest, initiating a controlled descent by bending at the knees and hips while maintaining an upright torso, sinking into a deep squat with the weight steady at the chest as the knees align over the toes. Once in the lowest position, the legs engage to press back upwards, driving the body to full extension while keeping the kettlebell positioned securely in front of the chest throughout the upward movement. Maintaining balance, the exercise concludes with a return to the initial standing posture, completing the fluid squatting action.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dumbbell Bulgarian Split Squat</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begin by holding a pair of dumbbells at your sides with a neutral grip, standing a comfortable distance from a bench, then place one foot backward onto the bench, with the other foot on the ground to stabilize the body. Engaging your core, lower your body into a lunge by flexing the knee of the standing leg, while the rear leg remains supported by the bench and bent naturally at the knee. As you descend in a controlled motion, ensure the dumbbells stay aligned alongside the body, then drive through the heel of the planted foot to extend the leg and return smoothly to the standing position, maintaining balance and posture. Repeat the motion continuously, with focus on stability and leg activation.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kettlebell Deadlift</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The movement begins in a hinged squat, with feet grounded and the torso leaning forward, gripping the kettlebell between the legs just above the floor. From this position, the body rises to a standing posture while the arms remain extended, driving the kettlebell upward to hip level with control. The sequence completes by lowering the body back into the squatted position while maintaining core engagement, bringing the kettlebell back down to the starting point close to the ground in a seamless, fluid motion.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Seated Cable Row</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Seated on a bench, legs extended forward with knees slightly bent and feet positioned on the platform, the individual holds the cable attachment with both hands, maintaining an upright posture. Initiating the movement, they pull the handle toward the torso, keeping the elbows close to the body, while engaging the upper back and core. The controlled motion continues as the individual contracts and squeezes the shoulder blades together before smoothly releasing and allowing the arms to extend back to the starting position, maintaining tension in the back throughout the sequence.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kettlebell Decline Skull Crusher </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lying face down on an incline bench with the legs securely anchored under padded supports, the arms extend fully downward while holding dumbbells, then smoothly raise the weights toward the ceiling with a controlled motion until the arms are fully extended overhead, keeping the elbows soft and slightly bent; finally, the arms return to the starting position in a gradual, fluid descent, maintaining tension in the shoulders and upper back throughout the movement.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Side Plank Up Down Dumbbells</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The individual begins in a side plank position, balanced on one forearm with legs extended and stacked, holding a dumbbell in the top hand. From this stable posture, the top arm pulls the dumbbell upward toward the torso, bending at the elbow, with the forearm remaining vertical as the motion continues smoothly. In a controlled manner, the arm lowers the weight back down to the starting position, staying aligned with the body, while maintaining the side plank, engaging the core and shoulders throughout the entire movement.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kettlebell Goblet Curl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Standing tall with feet hip-width apart, the person grips a kettlebell in both hands at arm’s length in front of the body, maintaining a neutral posture. In a controlled and fluid motion, they bend the elbows to draw the kettlebell upward toward the chest, keeping the upper arms stable and close to the body. Once the kettlebell reaches chest height, the person smoothly lowers it back to the starting position, extending the arms without locking the elbows, completing the continuous up-and-down motion.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Single Arm Chest Press</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lying flat on a bench with feet planted firmly on the ground, the individual holds a dumbbell in each hand with arms fully extended above the chest, palms facing forward. In a smooth, controlled motion, the elbows are bent to lower the dumbbells to either side of the chest, keeping the forearms vertical and ensuring that the upper arms remain stable. Once the weights reach chest level, the individual engages the chest muscles, pushing the dumbbells back up to the starting position with a steady exhale, completing the press movement.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Side Plank Reach Through</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Starting in a side plank position with the body aligned from head to heels and the lower forearm pressing into the ground, the top arm extends upward toward the ceiling, creating a strong line from the supporting shoulder through the core and legs. From this position of stability, the body shifts downward into a controlled push-up, the chest and hips lowering as the arm bends at the elbow, maintaining structural integrity through the core. As the body presses back up, it transitions seamlessly back into the side plank, the top arm lifting once again to continue the flow of movement, ensuring balance and engagement of the entire body throughout.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dumbbell Calf Raise</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Beginning from a standing position with feet shoulder-width apart, arms relaxed at the sides holding a dumbbell in each hand, the body remains upright and stable as both elbows flex simultaneously, bringing the dumbbells up toward the hips in a controlled manner, with the wrists in a neutral position. Without pausing at the top, the lifter then gradually lowers the dumbbells back to the starting position by extending the arms, focusing on maintaining tension through the biceps and ensuring the movement is smooth and steady throughout.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Single Arm Press</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lying on a flat bench with feet planted firmly on the ground, the lifter holds a dumbbell in each hand, arms extended vertically above the chest. With controlled motion, the arms bend at the elbows, gradually lowering the dumbbells toward the sides of the chest, maintaining alignment and ensuring that the forearms remain perpendicular to the ground. Once the dumbbells are close to chest level, the lifter engages the chest muscles and pushes the dumbbells back upward in a steady arc, returning to the starting position with arms fully extended above the chest.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dumbbell Figure Four Glute Bridge]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lying on the back with knees bent, the arms hold a dumbbell close to the chest as the feet remain flat on the floor. Driving through the core, the upper torso curls upward while maintaining the dumbbell's position, engaging the abdominal muscles to lift the head and shoulders off the ground. As the body reaches its elevated point, there’s a slight pause before gently lowering the upper body back to the starting position in a controlled motion, maintaining tension in the abs throughout the descent.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dumbbell Decline Chest Press</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lying back on the bench, holding a dumbbell in each hand with arms extended above the chest, the user slowly lowers the weights in a controlled arc until the elbows bend to a right angle, with the upper arms parallel to the floor, before smoothly pressing the dumbbells back up along the same path to the starting position, creating a continuous motion that engages the chest and triceps while maintaining stability through the core and shoulders.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Seated Arnold Press</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The individual sits on a bench with feet flat on the floor, holding dumbbells at shoulder height, elbows bent. In one fluid motion, they press the weights upward, fully extending the arms above the head while maintaining control throughout the movement. The weights are then slowly lowered back down to the starting position at shoulder level, ensuring that the upper body remains stable and the motion is focused in the arms and shoulders.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Dumbbell Decline Squeeze Press</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lying on a flat bench with feet planted securely on the ground, the lifter holds a pair of dumbbells above their chest with arms fully extended and palms facing away. Slowly, the arms bend at the elbows, lowering the dumbbells in a controlled motion outward and down toward the sides of the chest, while maintaining the upper arms at a slight angle. Once the dumbbells are just above chest level, the lifter presses the weights back up by extending the arms again, bringing the dumbbells together over the chest to complete the movement.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kettlebell Seated Calf Raises</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Seated on a bench, the individual holds a kettlebell in both hands, starting with the weight resting on the lap. Maintaining an upright posture, with feet firmly planted on the floor, the kettlebell is lifted with a controlled motion to chest height, engaging the core and arms to stabilize the movement. The forearms align vertically as the weight is guided upward, then gently lowered back to the starting position while keeping the elbows close to the body, ensuring a smooth, continuous flow throughout the exercise.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kettlebell Glute Bridge</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>With the feet flat on the ground and knees bent, the individual lies on their back, holding a kettlebell close to the chest with both hands, before thrusting the hips upward into a bridge position, creating a straight line from shoulders to knees, while keeping the kettlebell steadily gripped at the chest. After a brief hold at the top of the bridge, the pelvis lowers in a controlled manner, bringing the body back to the floor as the starting position is resumed, ensuring full tension is maintained throughout the movement.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dumbbell Forward Lunge 2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>The movement begins with the body stepping forward, one leg striding ahead while holding dumbbells in each hand at the sides. As the step completes, the body returns to an upright, neutral stance, with both feet planted firmly on the ground and arms hanging naturally by the sides, maintaining the weights throughout the motion. The sequence emphasizes core stability and balance as the body moves smoothly from forward motion into a controlled standing position.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Single Arm Overhead Tricep Extension</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Standing upright with feet firmly planted on the ground, the individual holds a dumbbell overhead in both hands, arms fully extended and straight above the head, with palms facing inward. Engaging the core for stability, they gradually bend their elbows, lowering the dumbbell behind the head while keeping the upper arms stationary, allowing the movement to isolate the triceps. Once the dumbbell reaches a controlled position behind the head, they reverse the motion by extending the elbows once again, smoothly bringing the weight back to the fully raised starting position, ensuring continuous tension throughout the arms for an effective stretch and contraction.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kettlebell shrugs</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Standing with feet shoulder-width apart and both hands gripping the handle of a kettlebell in front of the thighs, the body remains upright as the hands actively move the weight by bending the elbows gently and lifting slightly toward the chest while ensuring the shoulders stay relaxed, before gradually easing the kettlebell back down to the starting position, maintaining a smooth, controlled motion throughout the sequence to engage the arms and stabilize the core.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Single Arm Neutral Overhead Press</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Seated on a bench with feet planted for stability, the person holds a dumbbell in each hand at shoulder height with palms facing forward, elbows bent at approximately 90 degrees. From this position, they smoothly press the dumbbells overhead until the arms are fully extended, maintaining control of the weights, before lowering them back down in a controlled motion to the starting position near the shoulders, ready to repeat the movement.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dumbbell  Bench Press</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seated on an incline bench, the individual presses two dumbbells upward from chest level, elbows bent, as the weights move in a controlled arc toward full arm extension above the shoulders. Once the arms are fully extended and stable, the motion reverses, with the dumbbells descending smoothly along the same path until the elbows are just below shoulder level, maintaining tension in the chest and arms throughout the movement. This fluid up-and-down motion emphasizes control and continuous engagement of the upper body muscles.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dumbbell Curl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Standing with feet shoulder-width apart and holding dumbbells at either side with palms facing forward, the lifter tightens the core, keeps the upper arms stationary, and begins to bend at the elbows, bringing the weights upward in a smooth arc toward the shoulders. Once the dumbbells reach shoulder height with the biceps fully engaged, the arms are extended back down in controlled motion to the starting position, maintaining tension in the muscles throughout the descent.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Seating Overhead Tricep Extension</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seated upright on a bench, the individual grips a dumbbell in each hand with palms facing inward, arms bent at the elbows, and the dumbbells positioned behind the head. Maintaining stability through the core and chest, the arms extend smoothly upward toward full extension above the head, straightening in a fluid motion before lowering the weights back down in a controlled manner behind the head, keeping the elbows pointed forward and close to the ears to ensure constant tension in the triceps throughout the exercise.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kettlebell Concentration Curl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seated on a bench with legs apart, the person leans slightly forward, placing the elbow of the working arm on the inner thigh for support while holding a kettlebell. Starting with the arm extended downward, they smoothly bend the elbow, lifting the kettlebell toward the shoulder in a controlled, curling motion. Maintaining stability through the upper arm and minimizing body movement, they then lower the kettlebell back to the starting position, allowing the arm to extend fully once again.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dumbbell Front Rack Pause Squat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Holding a pair of dumbbells at shoulder height with elbows bent, the person stands with feet roughly shoulder-width apart and toes pointing slightly outward, as they initiate a squat movement by bending the knees and hips, maintaining an upright torso. In a smooth, controlled motion, they lower their body into a deep squat with knees tracking over the toes, thighs approaching parallel to the ground, while keeping the dumbbells steady. Upon reaching the bottom of the squat, they press through the heels and extend the legs, returning to a standing position and keeping the dumbbells stable at shoulder level throughout the entire sequence.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kettlebell Preacher Curl 2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>With one arm resting firmly on an inclined bench and the body leaning forward to maintain balance, the individual grips a kettlebell in the other hand, steadily raising it away from the bench while keeping the elbow slightly bent, then smoothly lowers it back down, controlling the motion to enhance engagement in the back and arm muscles, while the torso remains stable and supported by the bench throughout the movement.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dumbbell Glute Bridge</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lying on the back with knees bent and feet flat on the floor, the individual grips the kettlebell with both hands, resting it on the chest. Engaging the core, they push through the feet to lift their hips upward into a bridge position while simultaneously maintaining the kettlebell securely against the chest, forming a straight line from shoulders to knees. After holding the position briefly, they lower their hips back to the ground in a controlled manner, keeping the upper body stable throughout the movement until they return to the starting position.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Single Arm Overhead Press</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Standing upright with feet shoulder-width apart, the person grips a dumbbell in each hand, holding them at shoulder level with elbows bent and palms facing forward; from this position, they begin to press both dumbbells simultaneously upwards, fully extending the arms overhead in a smooth motion, before slowly lowering the weights back to the starting position near the shoulders, maintaining control throughout the movement to engage the shoulders and arms.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Signle Leg Hip Thrust</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Leaning on a bench at shoulder level, with the upper body supported and one leg extended, the individual presses a kettlebell against their chest, engaging the core while maintaining balance. The hips remain elevated, forming a straight line from the shoulder to the extended leg, supporting the body with one foot and the back on the bench. Maintaining tension in the core, the position highlights stability and control, leveraging the kettlebell as an added weight to enhance the intensity of the plank-like posture.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kettlebell Long Lever Lateral Raise</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>In this smooth fluid motion, the person stands tall with feet close together, holding a kettlebell in each hand by the sides of the body, arms fully extended. With controlled balance, the weights are gripped firmly, keeping the spine neutral and the shoulders relaxed but actively engaged. The body remains upright as the individual shifts the kettlebells slightly forward with a subtle flexion at the elbow, ensuring a steady and aligned posture throughout, before relaxing back into the starting position, maintaining tension in the arms and core for stability and control.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kettlebell Russian Twist</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>In a seated position with knees bent and feet lightly on the floor for stability, the person holds a kettlebell close to the chest, maintaining a slight incline in the torso to engage the core. The movement begins by twisting the upper body to one side, bringing the kettlebell along, then smoothly rotating back through the center and continuing the twist to the opposite side, ensuring the trunk leads the motion while keeping the arms engaged. The body remains balanced with controlled breathing, and the movement flows continuously from one side to the other, effectively activating the obliques and maintaining steady tension throughout the core as the weight shifts rhythmically.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dumbbell Alternating Pendlay Row</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>In a low, bent-over stance with knees slightly bent and feet staggered, one hand grips a dumbbell while the other steadies the position by bracing against the floor; from here, the lifter draws the dumbbell upward, keeping the elbow close to the body while maintaining a strong, engaged core, and then slowly lowers the weight back down in a controlled motion, repeating the sequence with fluidity and focus on the upper back and arm engagement.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Shoulders Stretch -4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Standing upright with feet together, one arm extends forward at shoulder height with the palm facing upwards, as the opposite hand rises to meet the forearm, the fingers aligned vertically in front of the face, forming a right angle at the elbow. The movement flows smoothly as the supporting arm transitions downward, returning to a resting position alongside the body, while the active arm fully extends, resuming a parallel alignment with the legs. Throughout the sequence, the body maintains a steady posture, with the focus on controlled, synchronized arm movements.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kettlebell Chest Press</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lying flat on a bench with a dumbbell in each hand, the lifter begins with the arms extended vertically, palms facing each other, and the weights directly above the chest. With a controlled motion, the arms are lowered outward in an arc, elbows slightly bent, as the weights are brought to chest level, allowing the chest to expand and stretch. The movement reverses smoothly and the arms are drawn back to the starting position, maintaining the same arc and finishing once the dumbbells meet above the chest, emphasizing a fluid chest contraction throughout the motion.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Shoulders Stretch -2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Starting in an upright stance with arms hanging naturally at the sides, the chest lifts slightly as the shoulders smoothly roll backward in an exaggerated motion, leading to a broad, open posture. Once the shoulders have been drawn back fully, the arms and upper body relax, allowing the shoulders to return naturally to their resting position, completing a fluid cycle of contraction and release.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Dumbbell Bench Press 2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lying flat on a bench with feet firmly planted on the ground and a dumbbell in each hand, the arms begin extended perpendicularly above the chest, palms facing forward; smoothly lower the dumbbells in a controlled arc outward, bending the elbows slightly, until they descend to chest level, then engaging the chest and arms, press the weights back up along the same path into the starting position, maintaining steady alignment throughout the movement.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Side Plank Reach Through Bodyweight</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The person begins in a stable side plank position, lying on their side with legs fully extended and feet stacked, while supporting their upper body with a bent arm, shoulder directly above the elbow, and forearm pressed into the mat. From this position, they transition smoothly into a forward movement by gradually lowering the torso towards the mat, then returning to the elevated side plank, maintaining engagement of the core and balance throughout. This movement emphasizes control and stability, engaging the entire lateral side of the body as the body shifts between these two positions while the legs remain extended and the feet anchored to the ground.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Shoulders Stretch -3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Standing upright, begin by placing both hands on the lower back, with elbows gently bent outward and chest open, maintaining an engaged core and neutral spine. Next, smoothly transition one arm across the body, gently wrapping it around the waist as the other arm mirrors the movement, resulting in both arms crossing over the abdomen. Finally, release the hands down to the sides, allowing the arms to relax naturally, and return to the neutral standing position with a steady posture and even weight distribution.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Dumbbell Figure Four Hip Thrust</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sitting upright on the floor with the upper body supported by a bench just below the shoulder blades, the person grips a dumbbell with both hands held at chest level. Simultaneously, one knee is bent toward the chest, with the opposite foot flat on the floor, forming a stable base while engaging the core. Pushing into the grounded foot, the individual elevates the hips, creating a straight line from the shoulders to the knees, while still maintaining the dumbbell close to the chest. The focus is on keeping the upper body steady, with the raised leg staying bent, ensuring stability through the core and hips during the entire motion.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>kettlebell pullover</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lying back on a bench with feet firmly planted on the floor, the lifter starts with their arms extended vertically, holding a barbell directly above their chest. Keeping the elbows slightly bent, they engage their chest and shoulders as they gradually lower the barbell in a controlled arc, bringing it back over and beyond the head. As their arms extend out behind them, they maintain a strong core and exhale while reversing the motion, pulling the barbell back up along the same path to the starting position above the chest. Throughout the movement, the torso remains steady, with focus on the smooth, fluid range of motion.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Seated Rear Delt Fly</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Seated on the edge of a bench with a slight forward lean, the individual begins by holding a dumbbell in each hand, arms extended toward the floor with a neutral grip, and the chest slightly bent toward the thighs. With controlled movement and the arms kept straight but not locked at the elbows, the dumbbells are raised laterally outwards, creating a wide arc through the sides until the arms reach shoulder height. The body remains stable throughout, and the movement is followed by a smooth reversal of the arc, allowing the dumbbells to descend back to the starting position, maintaining tension through the shoulders and upper back for the entire duration.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dumbbell Bench Press</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lying on a flat bench with feet planted firmly on the ground, the individual begins by holding dumbbells in each hand, arms extended straight above the chest, palms facing forward. With control, the arms bend at the elbows, lowering the dumbbells outwards in a wide arc until they are level with the chest, maintaining a slight bend in the elbows throughout. The movement reverses as the arms smoothly contract, bringing the dumbbells back along the same path to the starting position above the chest, completing the controlled, fluid descent and ascent in one continuous motion.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dumbbell Decline Single Arm Bench Press</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lying on a flat bench with feet planted on the ground, the individual grips a dumbbell in each hand, starting with arms extended above the chest. From this position, they slowly lower the dumbbells by bending at the elbows, guiding the weights outward and downward until they align with the chest, creating a wide arc. With control, they press the weights back upward, using the chest muscles to return the arms to full extension above the body, maintaining stability through the core and legs.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kettlebell Calf Raises</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Standing with feet firmly planted, the figure maintains an upright posture, holding a small object between both hands near the face. The elbows are bent, keeping the object close to the body, with the forearms elevated in front of the chest. The back remains straight, and the head is slightly tilted as the focus stays on the object. Both hands remain in position as the body holds steady, suggesting minimal movement to emphasize control while keeping the object securely held at face level.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kettlebell Goblet Good Morning</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Standing upright and holding a kettlebell close to the chest with both hands, the body hinges forward at the hips while maintaining a straight back, allowing the chest to lower and the arms to remain stable, guiding the kettlebell downward. As the torso approaches parallel to the ground, there's a continuous engagement of the core and posterior chain to stabilize the movement. The body then rises back to the starting position with control, the kettlebell remaining steady at the chest throughout the entire motion, creating a fluid transition from standing to hinged forward and back again.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kettlebell Reverse Lunge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Holding a kettlebell in each hand at your sides, begin by standing upright with your core engaged and shoulders neutral, then take a controlled step forward into a lunge, lowering your back knee toward the ground while keeping your chest upright and both arms straight. Press through the heel of your front foot to rise out of the lunge and bring your back foot forward—returning to the starting position while maintaining balance and control over the weights.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kettlebell Preacher Curl</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>The individual stands behind an incline bench, slightly bent over with their torso supported by one arm extended onto the top of the bench. Holding a kettlebell in the opposite hand, the trainee lifts the weight toward the face, flexing the elbow and keeping the upper arm stable. The kettlebell is then lowered in a controlled motion, moving back to the starting position, allowing the arm to straighten while maintaining balance and engagement in the body.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dumbbell Forward Lunge</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Begin standing tall with dumbbells in each hand, arms extended at the sides and feet close together, then step forward with one leg into a lunge position, bending both knees to lower the hips toward the ground while maintaining an upright posture and engaging the core; from this lowered stance, press through the heel of the front foot to rise back up, bringing the feet together and returning to a standing position with arms still hanging naturally by the sides, completing the movement with control.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Shoulders Stretch -1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The figure begins standing upright, with one arm extended directly in front of the body at shoulder height, then smoothly bends the elbow to bring the hand around and behind the head, maintaining the posture while aligning the forearm close to the body. The movement creates a stretch across the tricep and shoulder, with the opposite arm relaxed at the side, further emphasizing balance and flexibility. Finally, the extended arm transitions back to a neutral position alongside the body, completing the motion with controlled fluidity.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Dumbbell Decline Skullcrusher</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lying on a flat bench with a dumbbell in each hand, the lifter begins with arms extended above the chest, palms facing inward. With controlled movement, they bend their elbows, lowering the weights down and out to the sides of the chest, maintaining an outward elbow position, until the upper arms are nearly parallel to the floor. Engaging the chest muscles, the lifter presses the dumbbells back up in a smooth arc, returning to the starting position with arms fully extended overhead, completing the fluid motion.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Dumbbell Decline Guillotine Bench Press</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lying flat on a bench with feet planted firmly on the ground, the individual holds a dumbbell in each hand, arms extended above the chest with palms facing forward. With a controlled motion, the arms lower outward in an arc until the elbows are bent at roughly ninety degrees, bringing the dumbbells in line with the torso while maintaining a slight bend in the elbows. From this position, the arms engage the chest and shoulder muscles to powerfully reverse the movement, pressing the dumbbells back up to the starting position in a fluid, controlled manner, completing the flye motion.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Dumbbell Front Raise</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>With feet standing firmly and dumbbells resting at the sides, the arms engage as the weights are smoothly raised forward in a controlled motion, keeping the elbows slightly bent and lifting just below shoulder level, before gradually lowering the dumbbells back to the starting position, maintaining steady alignment throughout the movement for optimal control and balance.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Side Plank Up Down Bodyweight</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>The body begins lying on one side with legs extended and stacked, propped up on one arm with the elbow placed directly under the shoulder, while the other hand rests gently on the side of the torso. Engaging the core and using the stabilizing arm for support, the hips lift off the ground into a straight line, forming a strong diagonal from the head to the feet, while the upper body remains aligned and steady, the torso activating throughout the entire hold to maintain balance and proper form, before smoothly returning to the starting position.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Dumbbell Chest Fly</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lying flat on a bench with feet planted firmly on the floor, the person holds a dumbbell in each hand, starting with arms extended upward and dumbbells held directly above the chest. The elbows bend slowly, lowering the weights out and down in a controlled arc until the upper arms are parallel to the floor, before smoothly reversing the motion, engaging the chest muscles to bring the dumbbells back up to the starting position in a single fluid motion.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kettlebell Shoulder extention</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>The motion begins with the person standing in a slightly bent position, holding kettlebells in both hands with arms extended downward. As the body shifts forward, the weight transfers to one leg, with the knee bending and the torso lowering toward the floor as the kettlebells remain close to the body. The movement continues with the opposite leg pivoting slightly behind the body, while the kettlebells are shifted diagonally near the supporting foot, maintaining a steady, controlled motion that keeps the upper body engaged. The overall motion emphasizes balance, coordination, and the interplay between the legs and core as the weight is smoothly guided across the body.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
